--- a/biology/Botanique/Arrouya/Arrouya.xlsx
+++ b/biology/Botanique/Arrouya/Arrouya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'arrouya est un cépage français de raisins noirs.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il provient des Pyrénées. Dans le langage béarnais, arrouya signifie rouge ou rougeâtre.
 Il est classé autorisé dans les départements Pyrénées-Atlantiques et Hautes-Pyrénées. En 1998, il couvrait près de 80 ha. L'arrouya a été délaissé après la reconstitution des vignobles du Béarn
@@ -544,7 +558,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau cotonneux blanc à liseré rosé.
 Jeunes feuilles duveteuses, à plages bronzées.
@@ -576,7 +592,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cépage débourre 5 jours après le Chasselas et sa maturité est de troisième époque moyenne: 30 jours après le Chasselas.
 C'est un cépage de bonne vigueur et de bonne productivité.
@@ -608,7 +626,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont de taille moyenne et les baies sont moyennes. La grappe est pyramidale, avec 2 ailerons et compacte. Le cépage est très sensible au mildiou et au black-rot.
 Il donne un vin rouge peu coloré et de moyenne qualité.
@@ -640,7 +660,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arrouya est connu sous les noms de arhuya, aroyat, arrouyat, arroya, arruya, rouja et vieux-rouge.
 </t>
